--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171799.8223725581</v>
+        <v>163556.2732766049</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4078831.181624327</v>
+        <v>4078831.181624326</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
         <v>255.632988972596</v>
@@ -1432,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>326.2936867337087</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>33.46367014516804</v>
       </c>
     </row>
     <row r="12">
@@ -1533,10 +1533,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1545,10 +1545,10 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>210.5568343393446</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>28.7296670786262</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>124.0053392239484</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>175.0261522197567</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1785,7 +1785,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>20.45448659217149</v>
       </c>
       <c r="T16" t="n">
-        <v>210.1752753345841</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>63.90941067458682</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>177.5152637093868</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>75.12485239226392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>160.0131994575559</v>
       </c>
       <c r="G19" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
-        <v>124.246509035979</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>225.6301432758182</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>99.54098133534661</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>27.15951357731993</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>39.65171647727865</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>14.94287361752409</v>
+        <v>136.7018761694057</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.0298839804087</v>
       </c>
       <c r="H23" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.5900972850689</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H24" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T24" t="n">
         <v>135.5747030934602</v>
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>94.47631021175118</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2487,7 +2487,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>163.5780456014529</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S25" t="n">
         <v>150.7214115632189</v>
@@ -2532,13 +2532,13 @@
         <v>236.5633491017144</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>89.1433424927008</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>176.9735743413879</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>398.0298839804087</v>
       </c>
       <c r="H26" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>321.7476389551939</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H27" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T27" t="n">
         <v>135.5747030934602</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>22.81287313048072</v>
       </c>
       <c r="D28" t="n">
-        <v>62.54268086187538</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2733,7 +2733,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I28" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U28" t="n">
         <v>277.3271665015756</v>
@@ -2797,13 +2797,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>20.75745606125663</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>134.9192843213164</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H30" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T30" t="n">
         <v>135.5747030934602</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I31" t="n">
-        <v>30.27133425542513</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T31" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3271665015756</v>
+        <v>28.33406785093919</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>104.8272773835542</v>
       </c>
       <c r="G32" t="n">
-        <v>46.20165384811774</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H32" t="n">
         <v>271.6851953721275</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H33" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T33" t="n">
         <v>135.5747030934602</v>
@@ -3195,13 +3195,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>43.22680928567655</v>
+        <v>116.2121127859372</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S34" t="n">
         <v>150.7214115632189</v>
       </c>
       <c r="T34" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3271665015756</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>280.2643192372364</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>119.081879501201</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H36" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T36" t="n">
         <v>135.5747030934602</v>
@@ -3426,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>50.77083836930163</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>68.06057775797328</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.5780456014529</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.5633491017144</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>61.2578282747884</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T38" t="n">
-        <v>187.7990814630205</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U38" t="n">
         <v>255.5900972850689</v>
@@ -3568,10 +3568,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H39" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T39" t="n">
         <v>135.5747030934602</v>
@@ -3663,22 +3663,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>50.77083836930163</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>79.02277133925158</v>
       </c>
       <c r="G40" t="n">
         <v>163.5780456014529</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.69198155551911</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>277.6732464119339</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>334.3116927886101</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H42" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T42" t="n">
         <v>135.5747030934602</v>
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>48.82384198018676</v>
+        <v>79.02277133925158</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>150.7214115632189</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>115.5818533677474</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>169.7349373963319</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H45" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T45" t="n">
         <v>135.5747030934602</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.0562222931984</v>
+        <v>47.37212425421014</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4155,7 +4155,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I46" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S46" t="n">
         <v>150.7214115632189</v>
@@ -4191,7 +4191,7 @@
         <v>236.5633491017144</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>463.1768960650922</v>
+        <v>886.469516880092</v>
       </c>
       <c r="C11" t="n">
-        <v>36.27616607839228</v>
+        <v>459.568786893392</v>
       </c>
       <c r="D11" t="n">
         <v>36.27616607839228</v>
@@ -5038,16 +5038,16 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872672</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J11" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M11" t="n">
         <v>862.6140377103479</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1555.593163543254</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V11" t="n">
-        <v>1198.103748669504</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="W11" t="n">
-        <v>868.5141661102018</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="X11" t="n">
-        <v>868.5141661102018</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="Y11" t="n">
-        <v>463.1768960650922</v>
+        <v>886.469516880092</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
         <v>80.62417733004328</v>
@@ -5120,52 +5120,52 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>267.1899758967557</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>443.8288267274047</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>653.1035252084198</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
-        <v>870.258507040736</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1065.302174028223</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
-        <v>1514.219729248327</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q12" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R12" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1088.137999643809</v>
+        <v>545.5837784570099</v>
       </c>
       <c r="C13" t="n">
-        <v>916.1654365227246</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="D13" t="n">
-        <v>752.8486636494953</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="E13" t="n">
-        <v>586.6404578023488</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="F13" t="n">
-        <v>414.7786835769092</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K13" t="n">
-        <v>463.8388611422041</v>
+        <v>138.6345353799611</v>
       </c>
       <c r="L13" t="n">
-        <v>556.3346842424263</v>
+        <v>587.5520906000656</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.252239462531</v>
+        <v>685.6054381776848</v>
       </c>
       <c r="N13" t="n">
-        <v>1454.169794682635</v>
+        <v>1134.522993397789</v>
       </c>
       <c r="O13" t="n">
-        <v>1540.46292250496</v>
+        <v>1390.366528636948</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
@@ -5226,25 +5226,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T13" t="n">
-        <v>1813.808303919614</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U13" t="n">
-        <v>1533.666602402118</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="V13" t="n">
-        <v>1533.666602402118</v>
+        <v>1204.656412033528</v>
       </c>
       <c r="W13" t="n">
-        <v>1533.666602402118</v>
+        <v>1204.656412033528</v>
       </c>
       <c r="X13" t="n">
-        <v>1504.646736666132</v>
+        <v>962.0925154793335</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.303968355874</v>
+        <v>735.7497471690756</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>588.4348144731209</v>
+        <v>1165.521485895255</v>
       </c>
       <c r="C14" t="n">
-        <v>161.534084486421</v>
+        <v>1165.521485895255</v>
       </c>
       <c r="D14" t="n">
-        <v>161.534084486421</v>
+        <v>742.228865080255</v>
       </c>
       <c r="E14" t="n">
-        <v>161.534084486421</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="F14" t="n">
-        <v>161.534084486421</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839229</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149078</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250302</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303106</v>
       </c>
       <c r="M14" t="n">
-        <v>862.614037710348</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5299,7 +5299,7 @@
         <v>1591.77691709091</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R14" t="n">
         <v>1813.808303919614</v>
@@ -5311,19 +5311,19 @@
         <v>1600.530719422884</v>
       </c>
       <c r="U14" t="n">
-        <v>1342.315579046525</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="V14" t="n">
-        <v>984.826164172774</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="W14" t="n">
-        <v>588.4348144731209</v>
+        <v>1165.521485895255</v>
       </c>
       <c r="X14" t="n">
-        <v>588.4348144731209</v>
+        <v>1165.521485895255</v>
       </c>
       <c r="Y14" t="n">
-        <v>588.4348144731209</v>
+        <v>1165.521485895255</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C15" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G15" t="n">
-        <v>80.6241773300433</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>75.26691519968661</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>267.1899758967557</v>
+        <v>734.419604786317</v>
       </c>
       <c r="L15" t="n">
-        <v>443.8288267274047</v>
+        <v>911.0584556169659</v>
       </c>
       <c r="M15" t="n">
-        <v>653.1035252084198</v>
+        <v>1120.333154097981</v>
       </c>
       <c r="N15" t="n">
-        <v>870.258507040736</v>
+        <v>1337.488135930297</v>
       </c>
       <c r="O15" t="n">
-        <v>1065.302174028223</v>
+        <v>1532.531802917784</v>
       </c>
       <c r="P15" t="n">
-        <v>1225.987570233631</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.905125453736</v>
+        <v>1780.360625738642</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.4397257291076</v>
+        <v>1088.137999643809</v>
       </c>
       <c r="C16" t="n">
-        <v>510.4397257291076</v>
+        <v>916.1654365227246</v>
       </c>
       <c r="D16" t="n">
-        <v>510.4397257291076</v>
+        <v>752.8486636494953</v>
       </c>
       <c r="E16" t="n">
-        <v>510.4397257291076</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F16" t="n">
-        <v>338.577951503668</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G16" t="n">
-        <v>173.104676471574</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839229</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J16" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K16" t="n">
-        <v>216.556252028182</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L16" t="n">
-        <v>309.0520751284042</v>
+        <v>555.8607778145281</v>
       </c>
       <c r="M16" t="n">
-        <v>757.9696303485088</v>
+        <v>653.9141253921473</v>
       </c>
       <c r="N16" t="n">
-        <v>1206.887185568613</v>
+        <v>1102.831680612252</v>
       </c>
       <c r="O16" t="n">
-        <v>1655.804740788718</v>
+        <v>1551.749235832356</v>
       </c>
       <c r="P16" t="n">
-        <v>1726.545848929854</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1802.007452933977</v>
+        <v>1793.147206351764</v>
       </c>
       <c r="T16" t="n">
-        <v>1589.709195020256</v>
+        <v>1553.156372183361</v>
       </c>
       <c r="U16" t="n">
-        <v>1309.567493502761</v>
+        <v>1553.156372183361</v>
       </c>
       <c r="V16" t="n">
-        <v>1027.85602611079</v>
+        <v>1553.156372183361</v>
       </c>
       <c r="W16" t="n">
-        <v>753.0036222833025</v>
+        <v>1278.303968355874</v>
       </c>
       <c r="X16" t="n">
-        <v>510.4397257291076</v>
+        <v>1278.303968355874</v>
       </c>
       <c r="Y16" t="n">
-        <v>510.4397257291076</v>
+        <v>1278.303968355874</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.27616607839228</v>
+        <v>1569.944996461055</v>
       </c>
       <c r="C17" t="n">
-        <v>36.27616607839228</v>
+        <v>1569.944996461055</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27616607839228</v>
+        <v>1569.944996461055</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27616607839228</v>
+        <v>1143.968056608913</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872656</v>
       </c>
       <c r="J17" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K17" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303104</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
         <v>862.6140377103482</v>
@@ -5533,10 +5533,10 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090911</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R17" t="n">
         <v>1813.808303919614</v>
@@ -5545,22 +5545,22 @@
         <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U17" t="n">
-        <v>1277.760618769164</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V17" t="n">
-        <v>920.2712038954132</v>
+        <v>1569.944996461055</v>
       </c>
       <c r="W17" t="n">
-        <v>523.8798541957601</v>
+        <v>1569.944996461055</v>
       </c>
       <c r="X17" t="n">
-        <v>112.1598553635073</v>
+        <v>1569.944996461055</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.27616607839228</v>
+        <v>1569.944996461055</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004328</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968661</v>
       </c>
       <c r="J18" t="n">
-        <v>148.7086316845715</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>274.4772572558115</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L18" t="n">
-        <v>451.1161080864605</v>
+        <v>735.9313191969958</v>
       </c>
       <c r="M18" t="n">
-        <v>660.3908065674756</v>
+        <v>945.2060176780109</v>
       </c>
       <c r="N18" t="n">
-        <v>877.5457883997918</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1072.589455387279</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P18" t="n">
-        <v>1225.987570233631</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q18" t="n">
         <v>1674.905125453736</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.3209454618391</v>
+        <v>672.1800090263237</v>
       </c>
       <c r="C19" t="n">
-        <v>665.3209454618391</v>
+        <v>500.2074459052396</v>
       </c>
       <c r="D19" t="n">
-        <v>665.3209454618391</v>
+        <v>500.2074459052396</v>
       </c>
       <c r="E19" t="n">
-        <v>499.1127396146926</v>
+        <v>500.2074459052396</v>
       </c>
       <c r="F19" t="n">
-        <v>327.250965389253</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G19" t="n">
-        <v>161.777690357159</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J19" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>263.8742444497196</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L19" t="n">
-        <v>356.3700675499418</v>
+        <v>912.7564163623088</v>
       </c>
       <c r="M19" t="n">
-        <v>805.2876227700463</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N19" t="n">
-        <v>1254.205177990151</v>
+        <v>1458.672677674361</v>
       </c>
       <c r="O19" t="n">
-        <v>1703.122733210255</v>
+        <v>1544.965805496686</v>
       </c>
       <c r="P19" t="n">
-        <v>1773.863841351391</v>
+        <v>1773.863841351392</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
@@ -5700,25 +5700,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.330917251774</v>
+        <v>1657.330917251775</v>
       </c>
       <c r="T19" t="n">
-        <v>1417.340083083371</v>
+        <v>1417.340083083372</v>
       </c>
       <c r="U19" t="n">
         <v>1137.198381565876</v>
       </c>
       <c r="V19" t="n">
-        <v>855.4869141739048</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="W19" t="n">
-        <v>855.4869141739048</v>
+        <v>862.3459777383894</v>
       </c>
       <c r="X19" t="n">
-        <v>855.4869141739048</v>
+        <v>862.3459777383894</v>
       </c>
       <c r="Y19" t="n">
-        <v>855.4869141739048</v>
+        <v>862.3459777383894</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1713.261858126335</v>
+        <v>689.3095835211317</v>
       </c>
       <c r="C20" t="n">
-        <v>1713.261858126335</v>
+        <v>689.3095835211317</v>
       </c>
       <c r="D20" t="n">
-        <v>1289.969237311335</v>
+        <v>689.3095835211317</v>
       </c>
       <c r="E20" t="n">
-        <v>863.9922974591925</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F20" t="n">
-        <v>438.8681156485927</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="G20" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149078</v>
+        <v>184.2963411149081</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250297</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303104</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103486</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O20" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455148</v>
       </c>
       <c r="P20" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090911</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R20" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V20" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="W20" t="n">
-        <v>1813.808303919614</v>
+        <v>1094.646853566241</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.808303919614</v>
+        <v>1094.646853566241</v>
       </c>
       <c r="Y20" t="n">
-        <v>1713.261858126335</v>
+        <v>689.3095835211317</v>
       </c>
     </row>
     <row r="21">
@@ -5819,16 +5819,16 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004328</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968661</v>
       </c>
       <c r="J21" t="n">
         <v>433.5238427951067</v>
@@ -5843,16 +5843,16 @@
         <v>945.2060176780109</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.488135930296</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1532.531802917783</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P21" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R21" t="n">
         <v>1813.808303919613</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>586.3709481380004</v>
+        <v>544.3728659164005</v>
       </c>
       <c r="C22" t="n">
-        <v>414.3983850169163</v>
+        <v>372.4003027953165</v>
       </c>
       <c r="D22" t="n">
-        <v>414.3983850169163</v>
+        <v>372.4003027953165</v>
       </c>
       <c r="E22" t="n">
-        <v>248.1901791697699</v>
+        <v>344.9664506970136</v>
       </c>
       <c r="F22" t="n">
-        <v>76.32840494433032</v>
+        <v>173.104676471574</v>
       </c>
       <c r="G22" t="n">
-        <v>36.27616607839228</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583897</v>
+        <v>70.15038753583899</v>
       </c>
       <c r="K22" t="n">
-        <v>138.6345353799612</v>
+        <v>258.3167199723229</v>
       </c>
       <c r="L22" t="n">
-        <v>394.4780706191193</v>
+        <v>707.2342751924275</v>
       </c>
       <c r="M22" t="n">
-        <v>492.5314181967386</v>
+        <v>805.2876227700467</v>
       </c>
       <c r="N22" t="n">
-        <v>941.448973416843</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O22" t="n">
-        <v>1390.366528636948</v>
+        <v>1703.122733210256</v>
       </c>
       <c r="P22" t="n">
-        <v>1773.863841351391</v>
+        <v>1773.863841351392</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U22" t="n">
-        <v>1802.007452933977</v>
+        <v>1533.666602402119</v>
       </c>
       <c r="V22" t="n">
-        <v>1520.295985542006</v>
+        <v>1251.955135010148</v>
       </c>
       <c r="W22" t="n">
-        <v>1245.443581714519</v>
+        <v>977.102731182661</v>
       </c>
       <c r="X22" t="n">
-        <v>1002.879685160324</v>
+        <v>734.5388346284661</v>
       </c>
       <c r="Y22" t="n">
-        <v>776.5369168500659</v>
+        <v>734.5388346284661</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2019.343995703161</v>
+        <v>1016.80227523209</v>
       </c>
       <c r="C23" t="n">
-        <v>1592.443265716462</v>
+        <v>589.90154524539</v>
       </c>
       <c r="D23" t="n">
-        <v>1577.349453981589</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="E23" t="n">
-        <v>1151.372514129446</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="F23" t="n">
-        <v>726.2483323188463</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G23" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H23" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I23" t="n">
         <v>102.0442972147729</v>
       </c>
       <c r="J23" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K23" t="n">
         <v>513.228969837679</v>
       </c>
       <c r="L23" t="n">
-        <v>829.2827739385802</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M23" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N23" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O23" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P23" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q23" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R23" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S23" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="T23" t="n">
-        <v>2277.515811142625</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="U23" t="n">
-        <v>2019.343995703161</v>
+        <v>2230.250893809105</v>
       </c>
       <c r="V23" t="n">
-        <v>2019.343995703161</v>
+        <v>2230.250893809105</v>
       </c>
       <c r="W23" t="n">
-        <v>2019.343995703161</v>
+        <v>1833.859544109452</v>
       </c>
       <c r="X23" t="n">
-        <v>2019.343995703161</v>
+        <v>1422.1395452772</v>
       </c>
       <c r="Y23" t="n">
-        <v>2019.343995703161</v>
+        <v>1016.80227523209</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H24" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I24" t="n">
-        <v>75.07978914432218</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J24" t="n">
-        <v>183.4593521567748</v>
+        <v>168.0655064016224</v>
       </c>
       <c r="K24" t="n">
-        <v>355.0869125144397</v>
+        <v>339.6930667592873</v>
       </c>
       <c r="L24" t="n">
-        <v>593.3887605094956</v>
+        <v>577.994914754343</v>
       </c>
       <c r="M24" t="n">
-        <v>874.6212682256946</v>
+        <v>859.2274224705418</v>
       </c>
       <c r="N24" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631353</v>
       </c>
       <c r="O24" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714236</v>
       </c>
       <c r="P24" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541191</v>
       </c>
       <c r="R24" t="n">
         <v>1817.643160879484</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>785.3916316594597</v>
+        <v>880.7114591393215</v>
       </c>
       <c r="C25" t="n">
-        <v>613.4190685383757</v>
+        <v>785.2808427638153</v>
       </c>
       <c r="D25" t="n">
-        <v>450.1022956651464</v>
+        <v>621.964069890586</v>
       </c>
       <c r="E25" t="n">
-        <v>283.8940898179999</v>
+        <v>455.7558640434395</v>
       </c>
       <c r="F25" t="n">
         <v>283.8940898179999</v>
@@ -6144,55 +6144,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I25" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J25" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K25" t="n">
-        <v>521.8261615648511</v>
+        <v>274.5435524508289</v>
       </c>
       <c r="L25" t="n">
-        <v>664.5511415968875</v>
+        <v>778.8260135318144</v>
       </c>
       <c r="M25" t="n">
-        <v>1213.461927966168</v>
+        <v>1327.736799901095</v>
       </c>
       <c r="N25" t="n">
-        <v>1744.928082478455</v>
+        <v>1518.59925555315</v>
       </c>
       <c r="O25" t="n">
-        <v>1864.874391771335</v>
+        <v>2016.247889149234</v>
       </c>
       <c r="P25" t="n">
-        <v>2277.16781500059</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q25" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S25" t="n">
-        <v>2335.300841815819</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T25" t="n">
-        <v>2096.347963935299</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.219512923607</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="V25" t="n">
-        <v>1534.508045531635</v>
+        <v>1814.636496543327</v>
       </c>
       <c r="W25" t="n">
-        <v>1444.464265235978</v>
+        <v>1539.78409271584</v>
       </c>
       <c r="X25" t="n">
-        <v>1201.900368681783</v>
+        <v>1297.220196161645</v>
       </c>
       <c r="Y25" t="n">
-        <v>975.5576003715253</v>
+        <v>1070.877427851387</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1151.372514129446</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="C26" t="n">
-        <v>1151.372514129446</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="D26" t="n">
-        <v>1151.372514129446</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="E26" t="n">
-        <v>1151.372514129446</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F26" t="n">
-        <v>726.2483323188463</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G26" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="H26" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I26" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147721</v>
       </c>
       <c r="J26" t="n">
-        <v>263.3013860486626</v>
+        <v>263.3013860486622</v>
       </c>
       <c r="K26" t="n">
-        <v>513.2289698376794</v>
+        <v>513.2289698376787</v>
       </c>
       <c r="L26" t="n">
-        <v>829.2827739385805</v>
+        <v>829.2827739385796</v>
       </c>
       <c r="M26" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N26" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O26" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P26" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q26" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R26" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S26" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="T26" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="U26" t="n">
-        <v>2230.250893809106</v>
+        <v>2230.250893809105</v>
       </c>
       <c r="V26" t="n">
-        <v>1872.761478935356</v>
+        <v>1872.761478935354</v>
       </c>
       <c r="W26" t="n">
-        <v>1476.370129235703</v>
+        <v>1872.761478935354</v>
       </c>
       <c r="X26" t="n">
-        <v>1151.372514129446</v>
+        <v>1461.041480103102</v>
       </c>
       <c r="Y26" t="n">
-        <v>1151.372514129446</v>
+        <v>1055.704210057992</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D27" t="n">
-        <v>382.4949705971606</v>
+        <v>382.4949705971605</v>
       </c>
       <c r="E27" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F27" t="n">
-        <v>184.147206553002</v>
+        <v>184.1472065530019</v>
       </c>
       <c r="G27" t="n">
-        <v>91.31798361203343</v>
+        <v>91.3179836120334</v>
       </c>
       <c r="H27" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I27" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K27" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L27" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M27" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N27" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O27" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P27" t="n">
-        <v>1620.486649455023</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q27" t="n">
-        <v>1751.169046541192</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R27" t="n">
         <v>1817.643160879484</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>991.7797360720069</v>
+        <v>942.9928269035515</v>
       </c>
       <c r="C28" t="n">
-        <v>819.8071729509229</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="D28" t="n">
         <v>756.6327478379175</v>
@@ -6381,55 +6381,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I28" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="J28" t="n">
         <v>100.4757597880648</v>
       </c>
       <c r="K28" t="n">
-        <v>246.6960581639056</v>
+        <v>196.621835802608</v>
       </c>
       <c r="L28" t="n">
-        <v>750.9785192448911</v>
+        <v>599.6050218669907</v>
       </c>
       <c r="M28" t="n">
-        <v>1299.889305614172</v>
+        <v>1148.515808236271</v>
       </c>
       <c r="N28" t="n">
-        <v>1831.355460126458</v>
+        <v>1679.981962748558</v>
       </c>
       <c r="O28" t="n">
-        <v>2329.004093722542</v>
+        <v>2177.630596344642</v>
       </c>
       <c r="P28" t="n">
-        <v>2428.541312378489</v>
+        <v>2277.167815000588</v>
       </c>
       <c r="Q28" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S28" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="T28" t="n">
-        <v>2487.544691879676</v>
+        <v>2248.591813999155</v>
       </c>
       <c r="U28" t="n">
-        <v>2207.416240867984</v>
+        <v>1968.463362987462</v>
       </c>
       <c r="V28" t="n">
-        <v>1925.704773476012</v>
+        <v>1686.751895595491</v>
       </c>
       <c r="W28" t="n">
-        <v>1650.852369648525</v>
+        <v>1411.899491768004</v>
       </c>
       <c r="X28" t="n">
-        <v>1408.288473094331</v>
+        <v>1169.335595213809</v>
       </c>
       <c r="Y28" t="n">
-        <v>1181.945704784073</v>
+        <v>942.9928269035515</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>497.636311506274</v>
+        <v>1036.243910361738</v>
       </c>
       <c r="C29" t="n">
-        <v>70.73558151957405</v>
+        <v>609.3431803750382</v>
       </c>
       <c r="D29" t="n">
-        <v>70.73558151957405</v>
+        <v>186.0505595600384</v>
       </c>
       <c r="E29" t="n">
-        <v>49.7684541849714</v>
+        <v>186.0505595600384</v>
       </c>
       <c r="F29" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="G29" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H29" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I29" t="n">
-        <v>102.0442972147729</v>
+        <v>102.0442972147725</v>
       </c>
       <c r="J29" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486617</v>
       </c>
       <c r="K29" t="n">
-        <v>513.228969837679</v>
+        <v>513.2289698376783</v>
       </c>
       <c r="L29" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385792</v>
       </c>
       <c r="M29" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N29" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O29" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.365373791549</v>
       </c>
       <c r="P29" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q29" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R29" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S29" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T29" t="n">
-        <v>2488.42270924857</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="U29" t="n">
-        <v>2488.42270924857</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="V29" t="n">
-        <v>2130.93329437482</v>
+        <v>1867.812273485521</v>
       </c>
       <c r="W29" t="n">
-        <v>1734.541944675166</v>
+        <v>1867.812273485521</v>
       </c>
       <c r="X29" t="n">
-        <v>1322.821945842914</v>
+        <v>1456.092274653268</v>
       </c>
       <c r="Y29" t="n">
-        <v>917.484675797804</v>
+        <v>1456.092274653268</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H30" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I30" t="n">
-        <v>90.47363489947443</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J30" t="n">
-        <v>183.4593521567748</v>
+        <v>168.0655064016224</v>
       </c>
       <c r="K30" t="n">
-        <v>355.0869125144397</v>
+        <v>339.6930667592873</v>
       </c>
       <c r="L30" t="n">
-        <v>593.3887605094956</v>
+        <v>577.994914754343</v>
       </c>
       <c r="M30" t="n">
-        <v>874.6212682256946</v>
+        <v>859.2274224705418</v>
       </c>
       <c r="N30" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631353</v>
       </c>
       <c r="O30" t="n">
         <v>1428.251826469389</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>753.704875560381</v>
+        <v>1091.922083832231</v>
       </c>
       <c r="C31" t="n">
-        <v>581.7323124392969</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="D31" t="n">
-        <v>418.4155395660677</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E31" t="n">
-        <v>252.2073337189212</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F31" t="n">
-        <v>80.34555949348163</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G31" t="n">
-        <v>80.34555949348163</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H31" t="n">
-        <v>80.34555949348163</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I31" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J31" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K31" t="n">
-        <v>521.8261615648511</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L31" t="n">
-        <v>649.7197290546716</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M31" t="n">
-        <v>1198.630515423952</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N31" t="n">
-        <v>1730.096669936239</v>
+        <v>1367.225758175251</v>
       </c>
       <c r="O31" t="n">
         <v>1864.874391771335</v>
       </c>
       <c r="P31" t="n">
-        <v>2277.16781500059</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q31" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R31" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S31" t="n">
-        <v>2488.42270924857</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T31" t="n">
-        <v>2249.46983136805</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="U31" t="n">
-        <v>1969.341380356358</v>
+        <v>2307.558588628207</v>
       </c>
       <c r="V31" t="n">
-        <v>1687.629912964386</v>
+        <v>2025.847121236236</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.777509136899</v>
+        <v>1750.994717408749</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.213612582705</v>
+        <v>1508.430820854554</v>
       </c>
       <c r="Y31" t="n">
-        <v>943.8708442724467</v>
+        <v>1282.088052544296</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>797.7670116668685</v>
+        <v>1682.327821891813</v>
       </c>
       <c r="C32" t="n">
-        <v>370.8662816801686</v>
+        <v>1255.427091905113</v>
       </c>
       <c r="D32" t="n">
-        <v>370.8662816801686</v>
+        <v>832.1344710901133</v>
       </c>
       <c r="E32" t="n">
-        <v>370.8662816801686</v>
+        <v>832.1344710901133</v>
       </c>
       <c r="F32" t="n">
-        <v>370.8662816801686</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="G32" t="n">
         <v>324.1979444598476</v>
       </c>
       <c r="H32" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I32" t="n">
         <v>102.0442972147725</v>
       </c>
       <c r="J32" t="n">
-        <v>263.3013860486626</v>
+        <v>263.3013860486617</v>
       </c>
       <c r="K32" t="n">
-        <v>513.2289698376795</v>
+        <v>513.2289698376783</v>
       </c>
       <c r="L32" t="n">
-        <v>829.2827739385805</v>
+        <v>829.2827739385792</v>
       </c>
       <c r="M32" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N32" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O32" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.365373791549</v>
       </c>
       <c r="P32" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q32" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R32" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S32" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T32" t="n">
-        <v>2277.515811142625</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U32" t="n">
-        <v>2019.343995703161</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="V32" t="n">
-        <v>2019.343995703161</v>
+        <v>2078.719171591466</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.952646003508</v>
+        <v>1682.327821891813</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.952646003508</v>
+        <v>1682.327821891813</v>
       </c>
       <c r="Y32" t="n">
-        <v>1217.615375958399</v>
+        <v>1682.327821891813</v>
       </c>
     </row>
     <row r="33">
@@ -6773,22 +6773,22 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H33" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I33" t="n">
-        <v>90.47363489947443</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J33" t="n">
-        <v>183.4593521567748</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K33" t="n">
-        <v>355.0869125144397</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L33" t="n">
-        <v>593.3887605094956</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M33" t="n">
-        <v>874.6212682256946</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N33" t="n">
         <v>1165.638568386506</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>600.5830081276299</v>
+        <v>839.5358860081487</v>
       </c>
       <c r="C34" t="n">
-        <v>428.6104450065459</v>
+        <v>667.5633228870647</v>
       </c>
       <c r="D34" t="n">
-        <v>265.2936721333166</v>
+        <v>504.2465500138354</v>
       </c>
       <c r="E34" t="n">
-        <v>221.630228410411</v>
+        <v>386.8605775027877</v>
       </c>
       <c r="F34" t="n">
-        <v>49.7684541849714</v>
+        <v>214.9988032773481</v>
       </c>
       <c r="G34" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H34" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I34" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J34" t="n">
         <v>100.4757597880648</v>
       </c>
       <c r="K34" t="n">
-        <v>196.6218358026081</v>
+        <v>196.621835802608</v>
       </c>
       <c r="L34" t="n">
-        <v>700.9042968835936</v>
+        <v>438.2223146715828</v>
       </c>
       <c r="M34" t="n">
-        <v>1249.815083252875</v>
+        <v>987.1331010408635</v>
       </c>
       <c r="N34" t="n">
-        <v>1781.281237765161</v>
+        <v>1518.59925555315</v>
       </c>
       <c r="O34" t="n">
-        <v>2278.929871361245</v>
+        <v>2016.247889149234</v>
       </c>
       <c r="P34" t="n">
-        <v>2428.541312378489</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q34" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S34" t="n">
-        <v>2335.300841815819</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T34" t="n">
-        <v>2096.347963935299</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="U34" t="n">
-        <v>1816.219512923607</v>
+        <v>2055.172390804125</v>
       </c>
       <c r="V34" t="n">
-        <v>1534.508045531635</v>
+        <v>1773.460923412154</v>
       </c>
       <c r="W34" t="n">
-        <v>1259.655641704148</v>
+        <v>1498.608519584667</v>
       </c>
       <c r="X34" t="n">
-        <v>1017.091745149953</v>
+        <v>1256.044623030472</v>
       </c>
       <c r="Y34" t="n">
-        <v>790.7489768396955</v>
+        <v>1029.701854720214</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>476.6691841716713</v>
+        <v>2153.113314508412</v>
       </c>
       <c r="C35" t="n">
-        <v>49.7684541849714</v>
+        <v>1726.212584521712</v>
       </c>
       <c r="D35" t="n">
-        <v>49.7684541849714</v>
+        <v>1302.919963706712</v>
       </c>
       <c r="E35" t="n">
-        <v>49.7684541849714</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F35" t="n">
-        <v>49.7684541849714</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G35" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H35" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I35" t="n">
-        <v>102.0442972147729</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J35" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K35" t="n">
-        <v>513.2289698376792</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L35" t="n">
-        <v>829.2827739385802</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M35" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N35" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O35" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P35" t="n">
         <v>2175.730653154894</v>
       </c>
       <c r="Q35" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R35" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S35" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T35" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U35" t="n">
-        <v>2230.250893809106</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="V35" t="n">
-        <v>2109.966167040217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="W35" t="n">
-        <v>1713.574817340564</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="X35" t="n">
-        <v>1301.854818508311</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="Y35" t="n">
-        <v>896.5175484632014</v>
+        <v>2436.208586465216</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H36" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I36" t="n">
-        <v>90.47363489947443</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J36" t="n">
-        <v>183.4593521567748</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K36" t="n">
-        <v>355.0869125144397</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L36" t="n">
-        <v>593.3887605094956</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M36" t="n">
-        <v>874.6212682256946</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N36" t="n">
         <v>1165.638568386506</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>601.4610254965237</v>
+        <v>753.7048755603801</v>
       </c>
       <c r="C37" t="n">
-        <v>550.177350376017</v>
+        <v>581.732312439296</v>
       </c>
       <c r="D37" t="n">
-        <v>386.8605775027877</v>
+        <v>418.4155395660667</v>
       </c>
       <c r="E37" t="n">
-        <v>386.8605775027877</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="F37" t="n">
-        <v>214.9988032773481</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="G37" t="n">
-        <v>49.7684541849714</v>
+        <v>184.4371321323029</v>
       </c>
       <c r="H37" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I37" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J37" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K37" t="n">
-        <v>521.8261615648511</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L37" t="n">
-        <v>700.3842977565059</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M37" t="n">
-        <v>835.7596036629649</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N37" t="n">
         <v>1367.225758175251</v>
@@ -7113,34 +7113,34 @@
         <v>1864.874391771335</v>
       </c>
       <c r="P37" t="n">
-        <v>2277.16781500059</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q37" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R37" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.178859184713</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="T37" t="n">
-        <v>2097.225981304193</v>
+        <v>2249.469831368049</v>
       </c>
       <c r="U37" t="n">
-        <v>1817.0975302925</v>
+        <v>1969.341380356357</v>
       </c>
       <c r="V37" t="n">
-        <v>1535.386062900529</v>
+        <v>1687.629912964386</v>
       </c>
       <c r="W37" t="n">
-        <v>1260.533659073042</v>
+        <v>1412.777509136899</v>
       </c>
       <c r="X37" t="n">
-        <v>1017.969762518847</v>
+        <v>1170.213612582704</v>
       </c>
       <c r="Y37" t="n">
-        <v>791.6269942085893</v>
+        <v>943.8708442724458</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>49.7684541849714</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="C38" t="n">
-        <v>49.7684541849714</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="D38" t="n">
-        <v>49.7684541849714</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="E38" t="n">
-        <v>49.7684541849714</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="F38" t="n">
-        <v>49.7684541849714</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="G38" t="n">
-        <v>49.7684541849714</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H38" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I38" t="n">
-        <v>102.0442972147728</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J38" t="n">
         <v>263.3013860486624</v>
       </c>
       <c r="K38" t="n">
-        <v>513.2289698376791</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L38" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M38" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N38" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O38" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P38" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q38" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R38" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S38" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T38" t="n">
-        <v>2298.726667366731</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="U38" t="n">
-        <v>2040.554851927267</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="V38" t="n">
-        <v>1683.065437053517</v>
+        <v>1609.640458046057</v>
       </c>
       <c r="W38" t="n">
-        <v>1286.674087353864</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="X38" t="n">
-        <v>874.9540885216111</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="Y38" t="n">
-        <v>469.6168184765015</v>
+        <v>1213.249108346404</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H39" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I39" t="n">
-        <v>75.07978914432218</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K39" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L39" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M39" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N39" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O39" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P39" t="n">
-        <v>1620.486649455023</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q39" t="n">
-        <v>1751.169046541192</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R39" t="n">
         <v>1817.643160879484</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>601.4610254965237</v>
+        <v>601.4610254965228</v>
       </c>
       <c r="C40" t="n">
-        <v>601.4610254965237</v>
+        <v>429.4884623754388</v>
       </c>
       <c r="D40" t="n">
-        <v>438.1442526232944</v>
+        <v>429.4884623754388</v>
       </c>
       <c r="E40" t="n">
-        <v>386.8605775027877</v>
+        <v>429.4884623754388</v>
       </c>
       <c r="F40" t="n">
-        <v>214.9988032773481</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="G40" t="n">
-        <v>49.7684541849714</v>
+        <v>184.4371321323029</v>
       </c>
       <c r="H40" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I40" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J40" t="n">
-        <v>178.3974764362857</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K40" t="n">
-        <v>274.543552450829</v>
+        <v>443.9044449166301</v>
       </c>
       <c r="L40" t="n">
-        <v>750.9785192448911</v>
+        <v>948.1869059976156</v>
       </c>
       <c r="M40" t="n">
-        <v>1299.889305614172</v>
+        <v>1083.562211904075</v>
       </c>
       <c r="N40" t="n">
-        <v>1831.355460126458</v>
+        <v>1615.028366416361</v>
       </c>
       <c r="O40" t="n">
-        <v>2329.004093722542</v>
+        <v>2112.677000012445</v>
       </c>
       <c r="P40" t="n">
-        <v>2428.541312378489</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q40" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R40" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.178859184713</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T40" t="n">
-        <v>2097.225981304193</v>
+        <v>2097.225981304192</v>
       </c>
       <c r="U40" t="n">
-        <v>1817.0975302925</v>
+        <v>1817.097530292499</v>
       </c>
       <c r="V40" t="n">
-        <v>1535.386062900529</v>
+        <v>1535.386062900528</v>
       </c>
       <c r="W40" t="n">
-        <v>1260.533659073042</v>
+        <v>1260.533659073041</v>
       </c>
       <c r="X40" t="n">
-        <v>1017.969762518847</v>
+        <v>1017.969762518846</v>
       </c>
       <c r="Y40" t="n">
-        <v>791.6269942085893</v>
+        <v>791.6269942085884</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1324.162196662713</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="C41" t="n">
-        <v>1324.162196662713</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="D41" t="n">
-        <v>900.8695758477136</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="E41" t="n">
-        <v>474.8926359955712</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F41" t="n">
-        <v>49.7684541849714</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G41" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H41" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I41" t="n">
         <v>102.0442972147728</v>
@@ -7414,49 +7414,49 @@
         <v>263.3013860486624</v>
       </c>
       <c r="K41" t="n">
-        <v>513.2289698376791</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L41" t="n">
-        <v>829.2827739385799</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M41" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N41" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O41" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P41" t="n">
         <v>2175.730653154894</v>
       </c>
       <c r="Q41" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R41" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S41" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T41" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U41" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="V41" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="W41" t="n">
-        <v>2155.730559786496</v>
+        <v>2039.817236765563</v>
       </c>
       <c r="X41" t="n">
-        <v>1744.010560954243</v>
+        <v>1702.12865819121</v>
       </c>
       <c r="Y41" t="n">
-        <v>1744.010560954243</v>
+        <v>1296.7913881461</v>
       </c>
     </row>
     <row r="42">
@@ -7484,22 +7484,22 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H42" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I42" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J42" t="n">
-        <v>183.4593521567748</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K42" t="n">
-        <v>355.0869125144397</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L42" t="n">
-        <v>593.3887605094956</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M42" t="n">
-        <v>874.6212682256946</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N42" t="n">
         <v>1165.638568386506</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>600.5830081276299</v>
+        <v>601.4610254965228</v>
       </c>
       <c r="C43" t="n">
-        <v>428.6104450065459</v>
+        <v>429.4884623754388</v>
       </c>
       <c r="D43" t="n">
-        <v>265.2936721333166</v>
+        <v>429.4884623754388</v>
       </c>
       <c r="E43" t="n">
-        <v>99.08546628617015</v>
+        <v>429.4884623754388</v>
       </c>
       <c r="F43" t="n">
-        <v>49.7684541849714</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="G43" t="n">
-        <v>49.7684541849714</v>
+        <v>184.4371321323029</v>
       </c>
       <c r="H43" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I43" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J43" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K43" t="n">
-        <v>274.543552450829</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L43" t="n">
-        <v>402.4371199406495</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M43" t="n">
-        <v>951.3479063099303</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N43" t="n">
-        <v>1482.814060822217</v>
+        <v>1692.950083064582</v>
       </c>
       <c r="O43" t="n">
-        <v>1980.462694418301</v>
+        <v>2190.598716660666</v>
       </c>
       <c r="P43" t="n">
-        <v>2277.16781500059</v>
+        <v>2290.135935316612</v>
       </c>
       <c r="Q43" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S43" t="n">
-        <v>2335.300841815819</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T43" t="n">
-        <v>2096.347963935299</v>
+        <v>2097.225981304192</v>
       </c>
       <c r="U43" t="n">
-        <v>1816.219512923607</v>
+        <v>1817.097530292499</v>
       </c>
       <c r="V43" t="n">
-        <v>1534.508045531635</v>
+        <v>1535.386062900528</v>
       </c>
       <c r="W43" t="n">
-        <v>1259.655641704148</v>
+        <v>1260.533659073041</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.091745149953</v>
+        <v>1017.969762518846</v>
       </c>
       <c r="Y43" t="n">
-        <v>790.7489768396955</v>
+        <v>791.6269942085884</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.812273485522</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.911543498822</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="D44" t="n">
-        <v>1017.618922683822</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="E44" t="n">
-        <v>591.6419828316797</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="F44" t="n">
-        <v>166.5178010210799</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="G44" t="n">
-        <v>49.7684541849714</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H44" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I44" t="n">
         <v>102.0442972147729</v>
       </c>
       <c r="J44" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K44" t="n">
-        <v>513.2289698376795</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L44" t="n">
-        <v>829.2827739385805</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M44" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N44" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O44" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P44" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q44" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R44" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S44" t="n">
-        <v>2436.208586465217</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="T44" t="n">
-        <v>2225.301688359272</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="U44" t="n">
-        <v>2225.301688359272</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.812273485522</v>
+        <v>2130.933294374819</v>
       </c>
       <c r="W44" t="n">
-        <v>1867.812273485522</v>
+        <v>1734.541944675165</v>
       </c>
       <c r="X44" t="n">
-        <v>1867.812273485522</v>
+        <v>1322.821945842913</v>
       </c>
       <c r="Y44" t="n">
-        <v>1867.812273485522</v>
+        <v>1151.372514129446</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H45" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I45" t="n">
-        <v>90.47363489947443</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J45" t="n">
-        <v>183.4593521567748</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K45" t="n">
-        <v>355.0869125144397</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L45" t="n">
-        <v>593.3887605094956</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M45" t="n">
-        <v>874.6212682256946</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N45" t="n">
         <v>1165.638568386506</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.922083832231</v>
+        <v>1023.026797291579</v>
       </c>
       <c r="C46" t="n">
-        <v>919.9495207111468</v>
+        <v>851.054234170495</v>
       </c>
       <c r="D46" t="n">
-        <v>756.6327478379175</v>
+        <v>687.7374612972657</v>
       </c>
       <c r="E46" t="n">
-        <v>590.424541990771</v>
+        <v>521.5292554501192</v>
       </c>
       <c r="F46" t="n">
-        <v>418.5627677653314</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="G46" t="n">
-        <v>253.3324186729547</v>
+        <v>184.4371321323029</v>
       </c>
       <c r="H46" t="n">
-        <v>118.6637407256232</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I46" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J46" t="n">
-        <v>150.5499821493623</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K46" t="n">
-        <v>246.6960581639056</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L46" t="n">
-        <v>750.9785192448911</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M46" t="n">
-        <v>1299.889305614172</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N46" t="n">
-        <v>1831.355460126458</v>
+        <v>1367.225758175251</v>
       </c>
       <c r="O46" t="n">
-        <v>2329.004093722542</v>
+        <v>1864.874391771335</v>
       </c>
       <c r="P46" t="n">
-        <v>2428.541312378489</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q46" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S46" t="n">
-        <v>2335.300841815819</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T46" t="n">
-        <v>2096.347963935299</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="U46" t="n">
-        <v>1816.219512923607</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="V46" t="n">
-        <v>1534.508045531635</v>
+        <v>1814.636496543327</v>
       </c>
       <c r="W46" t="n">
-        <v>1259.655641704148</v>
+        <v>1539.78409271584</v>
       </c>
       <c r="X46" t="n">
-        <v>1259.655641704148</v>
+        <v>1297.220196161645</v>
       </c>
       <c r="Y46" t="n">
-        <v>1259.655641704148</v>
+        <v>1070.877427851387</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>298.5044852260119</v>
+        <v>70.37539003541903</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.92392750596322</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>355.4735849779358</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>171.2630377947817</v>
       </c>
       <c r="P13" t="n">
-        <v>11.40031649231967</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>176.8960973939094</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>7.360890261672608</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>358.0675224703017</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>78.23011133365938</v>
       </c>
       <c r="M16" t="n">
-        <v>354.408290547965</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>355.473584977936</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.79595194094732</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>7.360890261672566</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>358.0675224703016</v>
+        <v>70.37539003541777</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9324,22 +9324,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>47.79595194094711</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>360.0219516362449</v>
       </c>
       <c r="M19" t="n">
-        <v>354.4082905479649</v>
+        <v>354.408290547965</v>
       </c>
       <c r="N19" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>159.7544724379496</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>176.8960973939082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541777</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>120.8910955478401</v>
       </c>
       <c r="L22" t="n">
-        <v>164.9976890292282</v>
+        <v>360.0219516362449</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779359</v>
+        <v>355.473584977936</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017981</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>15.54933914661845</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>15.54933914661953</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>14.9812247901171</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>58.00931715318038</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>15.54933914661856</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>50.58002258716915</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>277.8683015904668</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.54933914661844</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>15.5493391466195</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>73.03898783085774</v>
       </c>
       <c r="O31" t="n">
-        <v>14.98122479011704</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.54933914661844</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>114.8554660395498</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10524,7 +10524,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>50.58002258716857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>15.54933914661844</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10749,13 +10749,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>51.17633202205488</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>73.03898783085774</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>15.54933914661856</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>352.0620194992339</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -10998,7 +10998,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>218.5122158687843</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J42" t="n">
-        <v>15.54933914661844</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11235,10 +11235,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>199.1594968952951</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>139.8034111736117</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.54933914661844</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>50.58002258716915</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>73.03898783085774</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>66.13374946894783</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>367.8202271994905</v>
       </c>
     </row>
     <row r="12">
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578063</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>68.33751837870679</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>211.4085905100267</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>274.5606908505499</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458682</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.4012839828999</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>134.45812620899</v>
       </c>
       <c r="T16" t="n">
-        <v>27.41565049213454</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -23740,16 +23740,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>176.3992570156262</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>326.1590449523947</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>10.1299570256293</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>11.21371625327086</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>75.43872475250879</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -23974,16 +23974,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>196.0870271778028</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
         <v>277.176001558223</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>301.742916009312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,16 +24135,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>137.386610211355</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>124.1668258044944</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>75.43872475250879</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S22" t="n">
         <v>154.9126128011615</v>
@@ -24183,7 +24183,7 @@
         <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>404.1168209893256</v>
+        <v>282.3578184374439</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.69198155551911</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>75.77652727812196</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>182.9605372965113</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>238.6763063072269</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.69198155551911</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T26" t="n">
         <v>208.7978291248855</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>85.8551598887363</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>147.4399643593924</v>
       </c>
       <c r="D28" t="n">
-        <v>99.14092428262161</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>150.7214115632189</v>
       </c>
       <c r="T28" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>400.9597143923644</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>285.9536556711773</v>
       </c>
       <c r="G29" t="n">
         <v>398.0298839804087</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>255.5900972850689</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>37.93499941982016</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S31" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>248.9930986506364</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>316.0456626089395</v>
       </c>
       <c r="G32" t="n">
-        <v>351.8282301322909</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>121.3193145029984</v>
+        <v>48.33401100273774</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I34" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>135.3855614113783</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>271.6851953721275</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>208.7978291248855</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V35" t="n">
-        <v>234.8326412238121</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>119.4819991205715</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>96.4855460307017</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25399,16 +25399,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>360.4593421788326</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>20.99874766186494</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>113.7752854193733</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>91.1203851439336</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25633,16 +25633,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>271.6851953721275</v>
@@ -25690,13 +25690,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>114.7541897907227</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>73.29110605532014</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>121.3193145029984</v>
+        <v>91.1203851439336</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>282.4480306126613</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U44" t="n">
         <v>255.5900972850689</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>231.5489599483267</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.20808673174659</v>
+        <v>140.8921847707348</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>398140.0562661363</v>
+        <v>398140.0562661362</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>398140.0562661361</v>
+        <v>398140.0562661362</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>398140.0562661362</v>
+        <v>398140.0562661364</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>482958.0387542291</v>
+        <v>482958.038754229</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482958.0387542291</v>
+        <v>482958.0387542289</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482958.0387542291</v>
+        <v>482958.038754229</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482958.0387542292</v>
+        <v>482958.038754229</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482958.0387542291</v>
+        <v>482958.038754229</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482958.0387542292</v>
+        <v>482958.038754229</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>482958.0387542291</v>
+        <v>482958.038754229</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>19635.51464522563</v>
       </c>
       <c r="E2" t="n">
-        <v>153769.2826541837</v>
+        <v>153769.2826541836</v>
       </c>
       <c r="F2" t="n">
         <v>153769.2826541837</v>
@@ -26343,19 +26343,19 @@
         <v>188802.0698010842</v>
       </c>
       <c r="L2" t="n">
-        <v>188802.0698010843</v>
+        <v>188802.0698010842</v>
       </c>
       <c r="M2" t="n">
         <v>188802.0698010842</v>
       </c>
       <c r="N2" t="n">
-        <v>188802.0698010843</v>
+        <v>188802.0698010841</v>
       </c>
       <c r="O2" t="n">
-        <v>188802.0698010843</v>
+        <v>188802.0698010842</v>
       </c>
       <c r="P2" t="n">
-        <v>188802.0698010843</v>
+        <v>188802.0698010842</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>481053.6498424917</v>
+        <v>481053.6498424916</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>145239.9140696164</v>
+        <v>145239.9140696161</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>14110.06128541146</v>
       </c>
       <c r="F4" t="n">
-        <v>14110.06128541145</v>
+        <v>14110.06128541146</v>
       </c>
       <c r="G4" t="n">
         <v>14110.06128541145</v>
       </c>
       <c r="H4" t="n">
-        <v>14110.06128541145</v>
+        <v>14110.06128541146</v>
       </c>
       <c r="I4" t="n">
-        <v>11449.2316278648</v>
+        <v>11449.23162786481</v>
       </c>
       <c r="J4" t="n">
-        <v>11449.2316278648</v>
+        <v>11449.23162786481</v>
       </c>
       <c r="K4" t="n">
-        <v>11449.2316278648</v>
+        <v>11449.23162786481</v>
       </c>
       <c r="L4" t="n">
-        <v>11449.2316278648</v>
+        <v>11449.23162786481</v>
       </c>
       <c r="M4" t="n">
-        <v>11449.2316278648</v>
+        <v>11449.23162786481</v>
       </c>
       <c r="N4" t="n">
         <v>11449.23162786481</v>
       </c>
       <c r="O4" t="n">
-        <v>11449.2316278648</v>
+        <v>11449.23162786481</v>
       </c>
       <c r="P4" t="n">
-        <v>11449.2316278648</v>
+        <v>11449.23162786481</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304156</v>
@@ -26490,28 +26490,28 @@
         <v>36949.30081304156</v>
       </c>
       <c r="I5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="J5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576626</v>
       </c>
       <c r="K5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="L5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="M5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="N5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="O5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="P5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24791.61840964846</v>
+        <v>-26149.54750645025</v>
       </c>
       <c r="C6" t="n">
-        <v>-24791.61840964846</v>
+        <v>-26149.54750645025</v>
       </c>
       <c r="D6" t="n">
-        <v>-24791.61840964846</v>
+        <v>-26149.54750645025</v>
       </c>
       <c r="E6" t="n">
-        <v>-378343.729286761</v>
+        <v>-379030.9895435181</v>
       </c>
       <c r="F6" t="n">
-        <v>102709.9205557307</v>
+        <v>102022.6602989736</v>
       </c>
       <c r="G6" t="n">
-        <v>102709.9205557306</v>
+        <v>102022.6602989737</v>
       </c>
       <c r="H6" t="n">
-        <v>102709.9205557307</v>
+        <v>102022.6602989737</v>
       </c>
       <c r="I6" t="n">
-        <v>-17997.90190216324</v>
+        <v>-18509.99822318548</v>
       </c>
       <c r="J6" t="n">
-        <v>127242.0121674531</v>
+        <v>126729.9158464306</v>
       </c>
       <c r="K6" t="n">
-        <v>127242.0121674531</v>
+        <v>126729.9158464306</v>
       </c>
       <c r="L6" t="n">
-        <v>127242.0121674532</v>
+        <v>126729.9158464307</v>
       </c>
       <c r="M6" t="n">
-        <v>14239.94102495728</v>
+        <v>13727.84470393474</v>
       </c>
       <c r="N6" t="n">
-        <v>127242.0121674532</v>
+        <v>126729.9158464306</v>
       </c>
       <c r="O6" t="n">
-        <v>127242.0121674532</v>
+        <v>126729.9158464306</v>
       </c>
       <c r="P6" t="n">
-        <v>127242.0121674532</v>
+        <v>126729.9158464307</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="G3" t="n">
         <v>430.2483758469461</v>
@@ -26758,28 +26758,28 @@
         <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="J3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="K3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="L3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="M3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="N3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="O3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="P3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
+        <v>453.4520759799035</v>
+      </c>
+      <c r="G4" t="n">
         <v>453.4520759799036</v>
       </c>
-      <c r="G4" t="n">
-        <v>453.4520759799035</v>
-      </c>
       <c r="H4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="I4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="J4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121421</v>
       </c>
       <c r="K4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="L4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="M4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="N4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="O4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="P4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133.3663409047983</v>
+        <v>133.3663409047981</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>168.653601332239</v>
+        <v>168.6536013322386</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I11" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J11" t="n">
         <v>146.801178249406</v>
@@ -31773,25 +31773,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N11" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R11" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S11" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K12" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L12" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N12" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O12" t="n">
         <v>220.1856947600876</v>
@@ -31864,16 +31864,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T12" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677272</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J13" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596672</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L13" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M13" t="n">
         <v>121.6192253234244</v>
@@ -31937,22 +31937,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R13" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S13" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,25 +32010,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677272</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596672</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L16" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,22 +32174,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S16" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H23" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I23" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J23" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K23" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L23" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M23" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N23" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O23" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P23" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q23" t="n">
         <v>244.6795929391957</v>
@@ -32736,10 +32736,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S23" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T23" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U23" t="n">
         <v>0.1812630244829729</v>
@@ -32785,43 +32785,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I24" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J24" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K24" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L24" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M24" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N24" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O24" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P24" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q24" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R24" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S24" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T24" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,16 +32861,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H25" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I25" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J25" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K25" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L25" t="n">
         <v>151.1041816025906</v>
@@ -32879,28 +32879,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N25" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O25" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P25" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R25" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S25" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T25" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H26" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I26" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J26" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K26" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L26" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M26" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N26" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O26" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P26" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q26" t="n">
         <v>244.6795929391957</v>
@@ -32973,10 +32973,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S26" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T26" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U26" t="n">
         <v>0.1812630244829729</v>
@@ -33022,43 +33022,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I27" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J27" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K27" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L27" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M27" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N27" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O27" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P27" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q27" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R27" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S27" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T27" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,16 +33098,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H28" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I28" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J28" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K28" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L28" t="n">
         <v>151.1041816025906</v>
@@ -33116,28 +33116,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N28" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O28" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P28" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R28" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S28" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T28" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,34 +33174,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H29" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I29" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J29" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K29" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L29" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M29" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N29" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O29" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P29" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q29" t="n">
         <v>244.6795929391957</v>
@@ -33210,10 +33210,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S29" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T29" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U29" t="n">
         <v>0.1812630244829729</v>
@@ -33259,43 +33259,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I30" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J30" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K30" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L30" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M30" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N30" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P30" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q30" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R30" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S30" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T30" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,16 +33335,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H31" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I31" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J31" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K31" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L31" t="n">
         <v>151.1041816025906</v>
@@ -33353,28 +33353,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N31" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O31" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P31" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R31" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S31" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T31" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,34 +33411,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H32" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I32" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J32" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K32" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L32" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M32" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N32" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O32" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P32" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q32" t="n">
         <v>244.6795929391957</v>
@@ -33447,10 +33447,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S32" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T32" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U32" t="n">
         <v>0.1812630244829729</v>
@@ -33496,43 +33496,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I33" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J33" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K33" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L33" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M33" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N33" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O33" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P33" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q33" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R33" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S33" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T33" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,16 +33572,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H34" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I34" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J34" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K34" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L34" t="n">
         <v>151.1041816025906</v>
@@ -33590,28 +33590,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N34" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O34" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P34" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R34" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S34" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T34" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,34 +33648,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H35" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I35" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J35" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K35" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L35" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M35" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N35" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O35" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P35" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q35" t="n">
         <v>244.6795929391957</v>
@@ -33684,10 +33684,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S35" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T35" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U35" t="n">
         <v>0.1812630244829729</v>
@@ -33733,43 +33733,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I36" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J36" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K36" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L36" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M36" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N36" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P36" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q36" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R36" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S36" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T36" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,16 +33809,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H37" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I37" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J37" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K37" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L37" t="n">
         <v>151.1041816025906</v>
@@ -33827,28 +33827,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N37" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O37" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P37" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R37" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S37" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T37" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,34 +33885,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H38" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I38" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J38" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K38" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L38" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M38" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N38" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O38" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P38" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q38" t="n">
         <v>244.6795929391957</v>
@@ -33921,10 +33921,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S38" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T38" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U38" t="n">
         <v>0.1812630244829729</v>
@@ -33970,43 +33970,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I39" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J39" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K39" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L39" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M39" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N39" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O39" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P39" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q39" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R39" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S39" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T39" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,16 +34046,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H40" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I40" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J40" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K40" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L40" t="n">
         <v>151.1041816025906</v>
@@ -34064,28 +34064,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N40" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O40" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P40" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R40" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S40" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T40" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,34 +34122,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H41" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I41" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J41" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K41" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L41" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M41" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N41" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O41" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P41" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q41" t="n">
         <v>244.6795929391957</v>
@@ -34158,10 +34158,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S41" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T41" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U41" t="n">
         <v>0.1812630244829729</v>
@@ -34207,43 +34207,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I42" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J42" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K42" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L42" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M42" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N42" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P42" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q42" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R42" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S42" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T42" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,16 +34283,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H43" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I43" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J43" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K43" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L43" t="n">
         <v>151.1041816025906</v>
@@ -34301,28 +34301,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N43" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O43" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P43" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R43" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S43" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T43" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H44" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I44" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J44" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K44" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L44" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M44" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N44" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O44" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P44" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q44" t="n">
         <v>244.6795929391957</v>
@@ -34395,10 +34395,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S44" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T44" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U44" t="n">
         <v>0.1812630244829729</v>
@@ -34444,43 +34444,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I45" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J45" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K45" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L45" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M45" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N45" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P45" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q45" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R45" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S45" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T45" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,16 +34520,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H46" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I46" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J46" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K46" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L46" t="n">
         <v>151.1041816025906</v>
@@ -34538,28 +34538,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N46" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O46" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P46" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R46" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S46" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T46" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J11" t="n">
         <v>117.3812187638195</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N11" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35433,7 +35433,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R11" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M12" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N12" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
-        <v>453.4520759799034</v>
+        <v>225.3229807893105</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.3084810155651</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K13" t="n">
-        <v>318.9563201597417</v>
+        <v>69.17590691325469</v>
       </c>
       <c r="L13" t="n">
-        <v>93.43012434365875</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799034</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N13" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O13" t="n">
-        <v>87.16477557810539</v>
+        <v>258.4278133728871</v>
       </c>
       <c r="P13" t="n">
-        <v>82.85598128134579</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920424</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
-        <v>127.0390157285253</v>
+        <v>303.9351131224346</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P15" t="n">
-        <v>162.3084810155642</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>453.4520759799036</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R15" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325472</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365875</v>
+        <v>171.6602356773181</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799036</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P16" t="n">
-        <v>71.45566478902612</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.14389392905125</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>74.18355200493421</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
         <v>127.0390157285253</v>
@@ -35983,7 +35983,7 @@
         <v>154.9475907538916</v>
       </c>
       <c r="Q18" t="n">
-        <v>453.4520759799035</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36044,22 +36044,22 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>116.9718588542018</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L19" t="n">
-        <v>93.43012434365875</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="M19" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="N19" t="n">
-        <v>453.4520759799035</v>
+        <v>97.97849100196763</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810539</v>
       </c>
       <c r="P19" t="n">
-        <v>71.45566478902612</v>
+        <v>231.2101372269757</v>
       </c>
       <c r="Q19" t="n">
         <v>40.34794198810393</v>
@@ -36211,7 +36211,7 @@
         <v>211.3885843242577</v>
       </c>
       <c r="N21" t="n">
-        <v>396.2445638911973</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
         <v>197.0138050378654</v>
@@ -36220,10 +36220,10 @@
         <v>154.9475907538916</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.3845535096019</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R21" t="n">
-        <v>33.78553351613295</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>34.21638531055223</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325472</v>
+        <v>190.0670024610949</v>
       </c>
       <c r="L22" t="n">
-        <v>258.427813372887</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="M22" t="n">
         <v>99.04378543193862</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="P22" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902612</v>
       </c>
       <c r="Q22" t="n">
         <v>40.34794198810393</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J23" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K23" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L23" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M23" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N23" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O23" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P23" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q23" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R23" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.56700500944523</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J24" t="n">
-        <v>109.4743060731844</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K24" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L24" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M24" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N24" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O24" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P24" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R24" t="n">
-        <v>51.59623089206056</v>
+        <v>67.14557003868005</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K25" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L25" t="n">
-        <v>144.1666464970065</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M25" t="n">
-        <v>554.4553397669503</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N25" t="n">
-        <v>536.8344995073602</v>
+        <v>192.7903592444999</v>
       </c>
       <c r="O25" t="n">
-        <v>121.1578881746268</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P25" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q25" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J26" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K26" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L26" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M26" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N26" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O26" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P26" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R26" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606463</v>
       </c>
       <c r="J27" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K27" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L27" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M27" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N27" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O27" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P27" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R27" t="n">
-        <v>67.14557003867912</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>51.21950060918529</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K28" t="n">
-        <v>147.6972710867078</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L28" t="n">
-        <v>509.3762233141268</v>
+        <v>407.0537232973562</v>
       </c>
       <c r="M28" t="n">
-        <v>554.4553397669503</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N28" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O28" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P28" t="n">
-        <v>100.5426451070169</v>
+        <v>100.5426451070168</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.48625946472846</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J29" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K29" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L29" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M29" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N29" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O29" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P29" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q29" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R29" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>41.11634415606368</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J30" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K30" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L30" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M30" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N30" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O30" t="n">
-        <v>265.265917255437</v>
+        <v>280.8152564020564</v>
       </c>
       <c r="P30" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R30" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K31" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L31" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M31" t="n">
-        <v>554.4553397669503</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N31" t="n">
-        <v>536.8344995073602</v>
+        <v>207.8200299221773</v>
       </c>
       <c r="O31" t="n">
-        <v>136.1391129647438</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P31" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J32" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K32" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L32" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M32" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N32" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O32" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P32" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q32" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R32" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>41.11634415606368</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J33" t="n">
-        <v>93.924966926566</v>
+        <v>109.4743060731854</v>
       </c>
       <c r="K33" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L33" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M33" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N33" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O33" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P33" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R33" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>51.21950060918529</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K34" t="n">
-        <v>97.11724849953869</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L34" t="n">
-        <v>509.3762233141268</v>
+        <v>244.0408877464392</v>
       </c>
       <c r="M34" t="n">
-        <v>554.4553397669503</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N34" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O34" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P34" t="n">
-        <v>151.1226676941854</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.48625946472846</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J35" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K35" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L35" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M35" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N35" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O35" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P35" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q35" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R35" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>41.11634415606368</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J36" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K36" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L36" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M36" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N36" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O36" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P36" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R36" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K37" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L37" t="n">
-        <v>180.3617537289443</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M37" t="n">
         <v>136.7427332388474</v>
       </c>
       <c r="N37" t="n">
-        <v>536.8344995073602</v>
+        <v>207.8200299221773</v>
       </c>
       <c r="O37" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P37" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q37" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J38" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K38" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L38" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M38" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N38" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O38" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P38" t="n">
-        <v>288.2477569326709</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q38" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R38" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25.56700500944523</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J39" t="n">
-        <v>93.924966926566</v>
+        <v>109.4743060731854</v>
       </c>
       <c r="K39" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L39" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M39" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N39" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O39" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P39" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R39" t="n">
-        <v>67.14557003867912</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>129.9283053043579</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K40" t="n">
-        <v>97.11724849953869</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L40" t="n">
-        <v>481.2474412061234</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M40" t="n">
-        <v>554.4553397669503</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N40" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O40" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P40" t="n">
-        <v>100.5426451070169</v>
+        <v>319.0548609758011</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.48625946472846</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J41" t="n">
-        <v>162.8859483170602</v>
+        <v>162.8859483170603</v>
       </c>
       <c r="K41" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L41" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M41" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N41" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O41" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P41" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q41" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R41" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J42" t="n">
-        <v>109.4743060731844</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K42" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L42" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M42" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N42" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O42" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P42" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R42" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K43" t="n">
-        <v>97.11724849953869</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L43" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M43" t="n">
-        <v>554.4553397669503</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N43" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O43" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P43" t="n">
-        <v>299.702142002312</v>
+        <v>100.5426451070168</v>
       </c>
       <c r="Q43" t="n">
-        <v>213.3887820686669</v>
+        <v>200.2896706383402</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J44" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K44" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L44" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M44" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N44" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O44" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P44" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q44" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R44" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>41.11634415606368</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J45" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K45" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L45" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M45" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N45" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O45" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P45" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R45" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.7995231963544</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K46" t="n">
-        <v>97.11724849953869</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L46" t="n">
-        <v>509.3762233141268</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M46" t="n">
-        <v>554.4553397669503</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N46" t="n">
-        <v>536.8344995073602</v>
+        <v>207.8200299221773</v>
       </c>
       <c r="O46" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P46" t="n">
-        <v>100.5426451070169</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.48625946472846</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
